--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leejaebin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-7.0.23-0\apache2\htdocs\Tipper\Documents\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8970" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,74 +157,6 @@
   </si>
   <si>
     <t>회원 탈퇴 처리용 토큰 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/chPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id
-cr_pw
-new_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  비밀번호 수정 성공
-status : f  -&gt;  비밀번호 수정 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User 비밀번호 수정 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User 닉네임 수정 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/chNickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id
-new_Nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  닉네임 수정 성공
-status : f  -&gt;  닉네임 수정 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-mail 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User E-mail 수정 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/chEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id
-new_Nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  E-mail 수정 성공
-status : f  -&gt;  E-mail 수정 실패
-status : Nc  -&gt;  E-mail 인증 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,6 +458,60 @@
   <si>
     <t>status : s  -&gt;  추천/비추천 성공
 status : f  -&gt;  추천/비추천 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/editProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id
+new_pw
+new_Nn
+new_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  회원정보 수정 성공
+status : f  -&gt;  회원정보 수정 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 시 이메일 인증 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/send_authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service
+to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  이메일 전송 성공
+status : f  -&gt;  이메일 전송 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,15 +1001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="5" customWidth="1"/>
@@ -1170,50 +1159,44 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="11">
-        <v>200</v>
-      </c>
-      <c r="J6" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1222,24 +1205,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1248,24 +1231,27 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1276,22 +1262,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1302,25 +1285,22 @@
     </row>
     <row r="11" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I11" s="11">
         <v>200</v>
@@ -1329,21 +1309,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="I12" s="11">
         <v>200</v>
@@ -1352,24 +1335,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I13" s="11">
         <v>200</v>
@@ -1378,50 +1361,29 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="11">
-        <v>200</v>
-      </c>
-      <c r="J14" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I15" s="11">
         <v>200</v>
@@ -1430,29 +1392,47 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="11">
+        <v>200</v>
+      </c>
+      <c r="J16" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1461,24 +1441,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1487,44 +1464,41 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="11">
-        <v>200</v>
-      </c>
-      <c r="J19" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1533,47 +1507,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="11">
-        <v>200</v>
-      </c>
-      <c r="J22" s="10">
-        <v>400</v>
+      <c r="E21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,11 @@
   </si>
   <si>
     <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id
+type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1009,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1385,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>62</v>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,15 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id
-pw
-inf_ck
-nickname
-email
-alert_ck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status : s  -&gt;  회원가입 성공
 status : f  -&gt; 입력 값 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,22 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/deleteAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 Token 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token : 토큰값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/deleteAccount_token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id
 token</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 탈퇴 처리용 토큰 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,18 +152,6 @@
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 결제 Token 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 결제용 토큰 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,23 +224,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팁 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 작성 시 포인트 적립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 작성 시 포인트 적립 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/users/pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/add_point_write</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,10 +249,6 @@
 status : tf  -&gt;  토큰 값 검증 실패
 cr_point : 보유한 포인트  -&gt;  현재 보유하고 있는 포인트
 pay_point : 내야 할 포인트  -&gt;  결제할 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/pay_token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,6 +460,70 @@
   <si>
     <t>id
 type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/point_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/add_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id
+type
+comment
+user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt; 댓글 작성 성공
+status : f  -&gt;  댓글 작성 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/account_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email 인증 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/send_authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id
+pw
+inf_ck
+nickname
+email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1027,7 @@
     <col min="4" max="4" width="23.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="46.375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="49.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="13" style="18" customWidth="1"/>
     <col min="9" max="9" width="9" style="11"/>
     <col min="10" max="10" width="9" style="10"/>
@@ -1058,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1073,10 +1080,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
@@ -1091,10 +1098,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -1103,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="11">
         <v>200</v>
@@ -1112,24 +1119,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>26</v>
+      <c r="G4" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1138,70 +1145,61 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="11">
-        <v>200</v>
-      </c>
-      <c r="J5" s="10">
-        <v>400</v>
+        <v>100</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1210,24 +1208,27 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1236,27 +1237,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1265,21 +1260,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>43</v>
+      <c r="G10" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1288,24 +1286,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I11" s="11">
         <v>200</v>
@@ -1314,24 +1312,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I12" s="11">
         <v>200</v>
@@ -1340,55 +1338,44 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="11">
-        <v>200</v>
-      </c>
-      <c r="J13" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I15" s="11">
         <v>200</v>
@@ -1399,22 +1386,22 @@
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1425,19 +1412,19 @@
     </row>
     <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1448,19 +1435,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1471,39 +1458,39 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1514,22 +1501,22 @@
     </row>
     <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,11 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id
-token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status :  s  -&gt;  회원탈퇴 성공
 status : f  -&gt;  토큰 값 검증 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">status : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,15 +187,6 @@
   </si>
   <si>
     <t>p, num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">author
-date_s
-date_e
-title
-contents
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,15 +222,6 @@
 status : f  -&gt;  적립 실패
 cr_point : 보유한 포인트  -&gt;  적립 전 보유하고 있는 포인트
 added_point : 적립된 포인트  -&gt;  적립된 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  결제 성공
-status : f  -&gt;  결제 실패
-status : nm  -&gt;  포인트 부족
-status : tf  -&gt;  토큰 값 검증 실패
-cr_point : 보유한 포인트  -&gt;  현재 보유하고 있는 포인트
-pay_point : 내야 할 포인트  -&gt;  결제할 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +497,158 @@
 inf_ck
 nickname
 email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  결제 성공
+status : f  -&gt;  결제 실패
+status : nm  -&gt;  포인트 부족
+cr_point : 보유한 포인트  -&gt;  현재 보유하고 있는 포인트
+pay_point : 내야 할 포인트  -&gt;  결제할 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author
+title
+text
+category
+(ex. {category : game}, {category : sports})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{title : 제목, author : 작성자, price : 가격, image : 파일링크}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 작성한 글 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제한 팁 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 시 비밀번호 재입력 창 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/writeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/postList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/payedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pwAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/free_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tip_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 목록 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/freeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/edit_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/byeforever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,20 +1138,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="49.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="13" style="18" customWidth="1"/>
     <col min="9" max="9" width="9" style="11"/>
@@ -1080,7 +1205,7 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>17</v>
@@ -1127,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -1136,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1147,59 +1272,59 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1208,27 +1333,27 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1239,19 +1364,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1262,22 +1387,22 @@
     </row>
     <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1288,22 +1413,22 @@
     </row>
     <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I11" s="11">
         <v>200</v>
@@ -1314,22 +1439,22 @@
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="G12" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="11">
         <v>200</v>
@@ -1340,42 +1465,42 @@
     </row>
     <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="I15" s="11">
         <v>200</v>
@@ -1386,22 +1511,22 @@
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="G16" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1412,19 +1537,19 @@
     </row>
     <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1435,19 +1560,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1458,39 +1583,39 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="G20" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1501,22 +1626,150 @@
     </row>
     <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>95</v>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1699,6 +1699,9 @@
       <c r="C29" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="G29" s="15">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,11 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status : s  -&gt;  로그인 성공
-status : f  -&gt; 입력 값 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팁 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 게시글 상세 검색 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,67 +129,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 목록 게시판 형식 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tipboard/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tipboard/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 팁 상세보기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tipboard/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p, num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 추천/비추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 팁 추천/비추천 선택 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tipboard/like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p, like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,97 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 페이지 노출 컨텐츠 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main/tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지 노출(팁탑텐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title1 : top1 제목
-title2 : top2 제목
-title3 : top3 제목
-link1 : top1 링크
-link2 : top2 링크
-link3 : top3 링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지 노출(공지사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지 노출 컨텐츠 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main/notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추후 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 목록 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/freeboard/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 글 상세보기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/freeboard/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p, num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title : 제목  -&gt; 글 제목
-contents : 본문  -&gt;  글 본문
-author : 작성자  -&gt;  글 작성자
-like : 추천 수  -&gt;  글 추천 수
-unlike : 비추천 수  -&gt;  글 비추천 수
-type : 분류  -&gt;  팁 분류
-date : 작성날짜  -&gt;  글 작성날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title : 제목  -&gt; 글 제목
 contents : 본문  -&gt;  글 본문
 author : 작성자  -&gt;  글 작성자
@@ -477,10 +321,6 @@
   </si>
   <si>
     <t>E-mail 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email 인증 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,143 +352,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>author
-title
-text
-category
+    <t>메인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 작성한 글 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제한 팁 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 시 비밀번호 재입력 창 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/writeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/postList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/payedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pwAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/free_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tip_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 목록 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/freeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/edit_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/byeforever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  로그인 성공
+status : nr  -&gt;  id 또는 pw 에러
+status : f  -&gt; 입력 값 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 email 보내는처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 검사 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  인증 성공
+status : nc  -&gt;  인증번호 틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  전송 성공
+status : nr  -&gt;  email 없음
+status : f  -&gt;  전송 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id(글 번호)</t>
+  </si>
+  <si>
+    <t>post_id(글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p(페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p(페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p(페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id(글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(검색 값)
+s_type(검색 타입)
+price_limit(가격 한도 검색)
+category(분류)
 (ex. {category : game}, {category : sports})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{title : 제목, author : 작성자, price : 가격, image : 파일링크}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 작성한 글 목록 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 결과 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제한 팁 목록 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정 시 비밀번호 재입력 창 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 게시글 디테일 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유 게시글 디테일 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/writeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/postList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/payedList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pwAgain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/free_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tip_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 목록 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/freeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/edit_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/byeforever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_dashboard</t>
+    <t>title : 제목  -&gt; 글 제목
+contents : 본문  -&gt;  글 본문
+author : 작성자  -&gt;  글 작성자
+like : 추천 수  -&gt;  글 추천 수
+category : 분류  -&gt;  팁 분류
+date : 작성날짜  -&gt;  글 작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 팁 추천 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id(글 번호), like=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname : 닉네임
+point : 보유 포인트
+{top_ten : [{title, image(파일링크)}, {title,image(파일링크)}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title : 제목
+author : 작성자
+price : 가격
+image : 파일링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+post_id : 글 번호
+title : 글 제목
+price : 글 가격
+like : 추천 수
+category : 분류
+views : 조회수
+earned : 해당 팁으로 내가 번 포인트
+]
+a_point : 총 얻은 포인트
+write_num : 총 적은 게시글 수
+a_like : 총 추천 수
+cr_point : 현재 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+post_id : 글 번호
+title : 글 제목
+price : 글 가격
+like : 추천 수
+category : 분류
+views : 조회수
+earned : 해당 팁으로 번 포인트
+]
+write_num : 총 팁 수
+free_num : 총 자유글 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+title : 제목
+author : 작성자
+price : 가격
+image : 파일링크
+]
+a_payed : 총 결제한 팁 수
+a_point : 총 사용한 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p(페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+title : 제목
+author : 작성자
+price : 가격
+image : 파일링크
+]
+[
+category : 카테고리
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id(유저 id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+password : pw
+nickname : 닉네임
+email : 이메일
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+nickname : 닉네임
+id : id 
+posts : 게시글 수
+warn : 경고 횟수
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+{
+title : 제목
+author : 작성자
+like : 추천 수
+views : 조회 수 
+}
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,6 +782,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -785,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1186,7 @@
     <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="35.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="49.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="13" style="18" customWidth="1"/>
@@ -1205,7 +1241,7 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>17</v>
@@ -1218,7 +1254,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I3" s="11">
         <v>200</v>
@@ -1246,13 +1282,13 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -1261,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1270,61 +1306,76 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="11">
+        <v>200</v>
+      </c>
+      <c r="J5" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="I6" s="11">
+        <v>200</v>
+      </c>
+      <c r="J6" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1335,74 +1386,77 @@
     </row>
     <row r="8" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="11">
+        <v>200</v>
+      </c>
+      <c r="J8" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="11">
+        <v>200</v>
+      </c>
+      <c r="J9" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="11">
-        <v>200</v>
-      </c>
-      <c r="J8" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="11">
-        <v>200</v>
-      </c>
-      <c r="J9" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1413,366 +1467,438 @@
     </row>
     <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="11">
+        <v>200</v>
+      </c>
+      <c r="J12" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="11">
+        <v>200</v>
+      </c>
+      <c r="J13" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="11">
+        <v>200</v>
+      </c>
+      <c r="J14" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="11">
+        <v>200</v>
+      </c>
+      <c r="J16" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="11">
+        <v>200</v>
+      </c>
+      <c r="J17" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="11">
+        <v>200</v>
+      </c>
+      <c r="J18" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="11">
+        <v>200</v>
+      </c>
+      <c r="J19" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="11">
+        <v>200</v>
+      </c>
+      <c r="J20" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="11">
+        <v>200</v>
+      </c>
+      <c r="J21" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="11">
-        <v>200</v>
-      </c>
-      <c r="J11" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="11">
-        <v>200</v>
-      </c>
-      <c r="J12" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="11">
-        <v>200</v>
-      </c>
-      <c r="J15" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="11">
-        <v>200</v>
-      </c>
-      <c r="J16" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11">
-        <v>200</v>
-      </c>
-      <c r="J17" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="11">
-        <v>200</v>
-      </c>
-      <c r="J18" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="11">
-        <v>200</v>
-      </c>
-      <c r="J20" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>91</v>
+      <c r="C22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="11">
+        <v>200</v>
+      </c>
+      <c r="J22" s="10">
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="11">
+        <v>200</v>
+      </c>
+      <c r="J23" s="10">
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="11">
+        <v>200</v>
+      </c>
+      <c r="J24" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="11">
+        <v>200</v>
+      </c>
+      <c r="J25" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="11">
+        <v>200</v>
+      </c>
+      <c r="J26" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="11">
+        <v>200</v>
+      </c>
+      <c r="J27" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>99</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="11">
+        <v>200</v>
+      </c>
+      <c r="J28" s="10">
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="11">
+        <v>200</v>
+      </c>
+      <c r="J29" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="11">
+        <v>200</v>
+      </c>
+      <c r="J30" s="10">
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,17 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,11 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status : s  -&gt;  회원가입 성공
-status : f  -&gt; 입력 값 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User 로그인 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,16 +107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status :  s  -&gt;  회원탈퇴 성공
-status : f  -&gt;  토큰 값 검증 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST, GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,22 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  admin임(접근 허용)
-status : f  -&gt;  guest임(접근 비허용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title : 제목  -&gt; 글 제목
-contents : 본문  -&gt;  글 본문
-author : 작성자  -&gt;  글 작성자
-date : 작성날짜  -&gt;  글 작성날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,23 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id
-title
-contents
-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  팁 작성 성공
-status : f  -&gt;  팁 작성 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  추천/비추천 성공
-status : f  -&gt;  추천/비추천 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보 수정 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,23 +182,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id
-new_pw
-new_Nn
-new_Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  회원정보 수정 성공
-status : f  -&gt;  회원정보 수정 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정 시 이메일 인증 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/point_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/add_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/account_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,271 +222,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>메인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 작성한 글 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제한 팁 목록 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 시 비밀번호 재입력 창 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 게시글 디테일 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리자 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/writeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/postList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/payedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pwAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/free_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tip_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 목록 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/freeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/edit_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/byeforever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin_dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 email 보내는처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 검사 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>service
-to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  이메일 전송 성공
-status : f  -&gt;  이메일 전송 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id
-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/point_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 적립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/add_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post_id
-type
-comment
-user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt; 댓글 작성 성공
-status : f  -&gt;  댓글 작성 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/account_destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-mail 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/send_authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id
-pw
-inf_ck
-nickname
-email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  결제 성공
-status : f  -&gt;  결제 실패
-status : nm  -&gt;  포인트 부족
-cr_point : 보유한 포인트  -&gt;  현재 보유하고 있는 포인트
-pay_point : 내야 할 포인트  -&gt;  결제할 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 작성한 글 목록 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 결과 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제한 팁 목록 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정 시 비밀번호 재입력 창 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁 게시글 디테일 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유 게시글 디테일 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리자 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/writeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/postList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/payedList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pwAgain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/free_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tip_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 목록 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/freeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/edit_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/byeforever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_dashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 목록 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  로그인 성공
-status : nr  -&gt;  id 또는 pw 에러
-status : f  -&gt; 입력 값 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 email 보내는처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 검사 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  인증 성공
-status : nc  -&gt;  인증번호 틀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status : s  -&gt;  전송 성공
-status : nr  -&gt;  email 없음
-status : f  -&gt;  전송 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,15 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title : 제목  -&gt; 글 제목
-contents : 본문  -&gt;  글 본문
-author : 작성자  -&gt;  글 작성자
-like : 추천 수  -&gt;  글 추천 수
-category : 분류  -&gt;  팁 분류
-date : 작성날짜  -&gt;  글 작성날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팁 추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,20 +417,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post_id(글 번호), like=1</t>
+    <t>p(페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id(유저 id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  회원가입 성공
+status : f  -&gt; 입력 값 에러
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  로그인 성공
+status : nr  -&gt;  id 또는 pw 에러
+status : f  -&gt; 입력 값 에러
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status :  s  -&gt;  회원탈퇴 성공
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  전송 성공
+status : f  -&gt;  전송 실패
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  인증 성공
+status : nc  -&gt;  인증번호 틀림
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  회원정보 수정 성공
+status : f  -&gt;  현재 비밀번호 다름
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  결제 성공
+status : err  -&gt;  서버 에러
+status : nm  -&gt;  포인트 부족
+cr_point : 보유한 포인트  -&gt;  현재 보유하고 있는 포인트
+pay_point : 내야 할 포인트  -&gt;  결제할 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  팁 작성 성공
+status : f  -&gt;  입력 값 에러
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  추천 성공
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt; 댓글 작성 성공
+status : f  -&gt;  입력 값 에러
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  admin임(접근 허용)
+status : f  -&gt;  guest임(접근 비허용)
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nickname : 닉네임
 point : 보유 포인트
-{top_ten : [{title, image(파일링크)}, {title,image(파일링크)}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title : 제목
-author : 작성자
-price : 가격
-image : 파일링크</t>
+{top_ten : [{title, image(파일링크)}, {title,image(파일링크)}]}
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,7 +511,18 @@
 a_point : 총 얻은 포인트
 write_num : 총 적은 게시글 수
 a_like : 총 추천 수
-cr_point : 현재 포인트</t>
+cr_point : 현재 포인트
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+title : 제목
+author : 작성자
+price : 가격
+image : 파일링크
+]
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,22 +536,8 @@
 earned : 해당 팁으로 번 포인트
 ]
 write_num : 총 팁 수
-free_num : 총 자유글 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-title : 제목
-author : 작성자
-price : 가격
-image : 파일링크
-]
-a_payed : 총 결제한 팁 수
-a_point : 총 사용한 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p(페이지)</t>
+free_num : 총 자유글 수
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,28 +549,38 @@
 ]
 [
 category : 카테고리
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id(유저 id)</t>
+]
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title : 제목  -&gt; 글 제목
+contents : 본문  -&gt;  글 본문
+author : 작성자  -&gt;  글 작성자
+like : 추천 수  -&gt;  글 추천 수
+category : 분류  -&gt;  팁 분류
+date : 작성날짜  -&gt;  글 작성날짜
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[
-password : pw
-nickname : 닉네임
-email : 이메일
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-nickname : 닉네임
-id : id 
-posts : 게시글 수
-warn : 경고 횟수
-]</t>
+title : 제목
+author : 작성자
+price : 가격
+image : 파일링크
+]
+a_payed : 총 결제한 팁 수
+a_point : 총 사용한 포인트
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title : 제목  -&gt; 글 제목
+contents : 본문  -&gt;  글 본문
+author : 작성자  -&gt;  글 작성자
+date : 작성날짜  -&gt;  글 작성날짜
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,7 +591,61 @@
 like : 추천 수
 views : 조회 수 
 }
-]</t>
+]
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+nickname : 닉네임
+id : id 
+posts : 게시글 수
+warn : 경고 횟수
+]
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+password : pw
+nickname : 닉네임
+email : 이메일
+]
+status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service  -&gt;  이메일 서비스 도메인
+to  -&gt;  이메일 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_pw
+new_Nn
+new_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title
+contents
+type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id
+type
+comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id
+pw
+nickname
+email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +863,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1199,52 +1172,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
@@ -1254,24 +1227,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I3" s="11">
         <v>200</v>
@@ -1282,22 +1255,20 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1308,22 +1279,22 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I5" s="11">
         <v>200</v>
@@ -1332,24 +1303,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I6" s="11">
         <v>200</v>
@@ -1358,24 +1329,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1386,25 +1357,23 @@
     </row>
     <row r="8" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>71</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="17" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1413,24 +1382,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1441,94 +1410,91 @@
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="11">
+        <v>200</v>
+      </c>
+      <c r="J10" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="11">
-        <v>200</v>
-      </c>
-      <c r="J10" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" s="17" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11">
+        <v>200</v>
+      </c>
+      <c r="J12" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="11">
-        <v>200</v>
-      </c>
-      <c r="J12" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I13" s="11">
         <v>200</v>
@@ -1537,31 +1503,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="11">
-        <v>200</v>
-      </c>
-      <c r="J14" s="10">
-        <v>400</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
@@ -1575,18 +1527,18 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1595,21 +1547,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1618,44 +1570,44 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="11">
+        <v>200</v>
+      </c>
+      <c r="J18" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="11">
-        <v>200</v>
-      </c>
-      <c r="J18" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="G19" s="17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="I19" s="11">
         <v>200</v>
@@ -1664,21 +1616,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1687,21 +1639,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I21" s="11">
         <v>200</v>
@@ -1712,13 +1664,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I22" s="11">
         <v>200</v>
@@ -1729,13 +1681,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="I23" s="11">
         <v>200</v>
@@ -1746,13 +1698,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I24" s="11">
         <v>200</v>
@@ -1761,21 +1713,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I25" s="11">
         <v>200</v>
@@ -1784,21 +1736,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="I26" s="11">
         <v>200</v>
@@ -1807,44 +1759,44 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="11">
+        <v>200</v>
+      </c>
+      <c r="J27" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="11">
-        <v>200</v>
-      </c>
-      <c r="J27" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="I28" s="11">
         <v>200</v>
@@ -1855,13 +1807,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I29" s="11">
         <v>200</v>
@@ -1870,18 +1822,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I30" s="11">
         <v>200</v>
@@ -1892,13 +1844,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -754,7 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 페이지 접근 권한 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +642,10 @@
 pw
 nickname
 email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 접근 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,10 +1214,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="11">
         <v>200</v>
@@ -1261,14 +1261,14 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1279,22 +1279,22 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="11">
         <v>200</v>
@@ -1305,22 +1305,22 @@
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="11">
         <v>200</v>
@@ -1331,22 +1331,22 @@
     </row>
     <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1369,11 +1369,11 @@
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1384,22 +1384,22 @@
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1422,10 +1422,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1436,39 +1436,39 @@
     </row>
     <row r="11" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>27</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="11">
         <v>200</v>
@@ -1529,16 +1529,16 @@
     </row>
     <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1549,19 +1549,19 @@
     </row>
     <row r="17" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1572,19 +1572,19 @@
     </row>
     <row r="18" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1595,19 +1595,19 @@
     </row>
     <row r="19" spans="1:10" ht="198" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="11">
         <v>200</v>
@@ -1618,19 +1618,19 @@
     </row>
     <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1641,19 +1641,19 @@
     </row>
     <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="11">
         <v>200</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="11">
         <v>200</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="11">
         <v>200</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="11">
         <v>200</v>
@@ -1715,19 +1715,19 @@
     </row>
     <row r="25" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="11">
         <v>200</v>
@@ -1738,19 +1738,19 @@
     </row>
     <row r="26" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="11">
         <v>200</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="11">
         <v>200</v>
@@ -1784,19 +1784,19 @@
     </row>
     <row r="28" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="11">
         <v>200</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="11">
         <v>200</v>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="30" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I30" s="11">
         <v>200</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/writeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,6 +642,27 @@
   </si>
   <si>
     <t>관리자 페이지 접근 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  로그아웃 성공
+status : err  -&gt;  서버 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,10 +1228,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
@@ -1244,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="11">
         <v>200</v>
@@ -1268,7 +1282,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="11">
         <v>200</v>
@@ -1282,7 +1296,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>46</v>
@@ -1291,10 +1305,10 @@
         <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="11">
         <v>200</v>
@@ -1305,22 +1319,22 @@
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="11">
         <v>200</v>
@@ -1343,10 +1357,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="11">
         <v>200</v>
@@ -1369,11 +1383,11 @@
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="11">
         <v>200</v>
@@ -1396,10 +1410,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -1410,10 +1424,10 @@
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1422,10 +1436,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I10" s="11">
         <v>200</v>
@@ -1448,10 +1462,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
@@ -1468,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>27</v>
@@ -1485,7 +1499,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>29</v>
@@ -1494,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="11">
         <v>200</v>
@@ -1503,17 +1517,28 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="11">
+        <v>200</v>
+      </c>
+      <c r="J14" s="10">
+        <v>400</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
@@ -1535,10 +1560,10 @@
         <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1552,16 +1577,16 @@
         <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1575,16 +1600,16 @@
         <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1598,16 +1623,16 @@
         <v>50</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="11">
         <v>200</v>
@@ -1618,19 +1643,19 @@
     </row>
     <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1644,16 +1669,16 @@
         <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="11">
         <v>200</v>
@@ -1667,10 +1692,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="11">
         <v>200</v>
@@ -1684,10 +1709,10 @@
         <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="11">
         <v>200</v>
@@ -1701,10 +1726,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="11">
         <v>200</v>
@@ -1718,16 +1743,16 @@
         <v>55</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="11">
         <v>200</v>
@@ -1741,16 +1766,16 @@
         <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="11">
         <v>200</v>
@@ -1761,19 +1786,19 @@
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="11">
         <v>200</v>
@@ -1787,16 +1812,16 @@
         <v>57</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="11">
         <v>200</v>
@@ -1810,10 +1835,10 @@
         <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="11">
         <v>200</v>
@@ -1827,13 +1852,13 @@
         <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I30" s="11">
         <v>200</v>
@@ -1847,10 +1872,10 @@
         <v>60</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Project/api.xlsx
+++ b/Documents/Project/api.xlsx
@@ -478,12 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status : s  -&gt;  admin임(접근 허용)
-status : f  -&gt;  guest임(접근 비허용)
-status : err  -&gt;  서버 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nickname : 닉네임
 point : 보유 포인트
 {top_ten : [{title, image(파일링크)}, {title,image(파일링크)}]}
@@ -663,6 +657,12 @@
   <si>
     <t>status : s  -&gt;  로그아웃 성공
 status : err  -&gt;  서버 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : s  -&gt;  admin임(접근 허용)
+status : f  -&gt;  guest임(접근 비허용)
+status : err  -&gt;  서버 에러d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>96</v>
@@ -1305,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>99</v>
@@ -1357,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>101</v>
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>103</v>
@@ -1462,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>105</v>
@@ -1482,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>27</v>
@@ -1499,7 +1499,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>29</v>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I13" s="11">
         <v>200</v>
@@ -1519,19 +1519,19 @@
     </row>
     <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="11">
         <v>200</v>
@@ -1563,7 +1563,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="11">
         <v>200</v>
@@ -1577,7 +1577,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>77</v>
@@ -1586,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="11">
         <v>200</v>
@@ -1609,7 +1609,7 @@
         <v>91</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="11">
         <v>200</v>
@@ -1632,7 +1632,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="11">
         <v>200</v>
@@ -1655,7 +1655,7 @@
         <v>94</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="11">
         <v>200</v>
@@ -1678,7 +1678,7 @@
         <v>95</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" s="11">
         <v>200</v>
@@ -1752,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="11">
         <v>200</v>
@@ -1775,7 +1775,7 @@
         <v>90</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" s="11">
         <v>200</v>
@@ -1798,7 +1798,7 @@
         <v>88</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I27" s="11">
         <v>200</v>
@@ -1821,7 +1821,7 @@
         <v>89</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="11">
         <v>200</v>
@@ -1858,7 +1858,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="11">
         <v>200</v>
